--- a/Rangpur drought.xlsx
+++ b/Rangpur drought.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shuvo's PC\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ML_ASIF_OWN PROJCET\Drought_Classification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BE55672-AA3D-41E7-8E0B-642FE1B9832F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E774FBA7-21BC-4CFC-8498-A7DAF636AACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{A9558038-5DEF-4F75-A083-5A0CABA9442C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A9558038-5DEF-4F75-A083-5A0CABA9442C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -470,7 +470,8 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="17.85546875" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="3"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="23.140625" style="3" customWidth="1"/>
     <col min="6" max="6" width="14.5703125" style="3" customWidth="1"/>
     <col min="7" max="7" width="14.28515625" style="3" customWidth="1"/>
     <col min="8" max="9" width="9.140625" style="3"/>
